--- a/transport/input.xlsx
+++ b/transport/input.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="769" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,17 @@
     <sheet name="bridge" sheetId="6" r:id="rId3"/>
     <sheet name="refuge" sheetId="3" r:id="rId4"/>
     <sheet name="hospital" sheetId="4" r:id="rId5"/>
-    <sheet name="critical" sheetId="5" r:id="rId6"/>
-    <sheet name="tolerance" sheetId="7" r:id="rId7"/>
-    <sheet name="restoration" sheetId="8" r:id="rId8"/>
+    <sheet name="government" sheetId="9" r:id="rId6"/>
+    <sheet name="residential" sheetId="10" r:id="rId7"/>
+    <sheet name="work" sheetId="11" r:id="rId8"/>
+    <sheet name="economic" sheetId="12" r:id="rId9"/>
+    <sheet name="media" sheetId="5" r:id="rId10"/>
+    <sheet name="public" sheetId="13" r:id="rId11"/>
+    <sheet name="culture" sheetId="14" r:id="rId12"/>
+    <sheet name="tolerance" sheetId="7" r:id="rId13"/>
+    <sheet name="restoration" sheetId="8" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,12 +360,12 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -367,7 +373,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -375,7 +381,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -383,7 +389,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -391,7 +397,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -399,7 +405,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -407,7 +413,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -415,7 +421,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -423,7 +429,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -431,7 +437,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -439,7 +445,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -447,7 +453,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -455,7 +461,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -463,7 +469,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -471,7 +477,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -479,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -487,7 +493,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -495,7 +501,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -503,7 +509,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -511,7 +517,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -519,7 +525,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -527,7 +533,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -535,7 +541,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -543,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -551,7 +557,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -559,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -567,7 +573,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -575,7 +581,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -583,7 +589,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -591,7 +597,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -599,7 +605,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -607,7 +613,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -615,7 +621,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -623,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -631,7 +637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -639,7 +645,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -647,7 +653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -655,7 +661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -663,7 +669,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -671,7 +677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -679,7 +685,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -687,7 +693,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -703,7 +709,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -711,7 +717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -719,7 +725,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -735,7 +741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -743,7 +749,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -751,7 +757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -767,7 +773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -775,7 +781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -783,7 +789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -791,7 +797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -815,7 +821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -823,7 +829,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -831,7 +837,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -839,7 +845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -847,7 +853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -855,7 +861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -863,7 +869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -871,7 +877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -887,7 +893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -895,7 +901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -911,7 +917,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -919,7 +925,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -927,7 +933,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -935,7 +941,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -943,7 +949,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -959,7 +965,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -967,7 +973,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -975,7 +981,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -983,7 +989,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -991,7 +997,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1119,12 +1125,252 @@
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96">
         <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A25">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1138,16 +1384,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1170,7 +1416,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1193,7 +1439,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1216,7 +1462,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1239,7 +1485,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1262,7 +1508,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1285,7 +1531,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1308,7 +1554,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1331,7 +1577,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1354,7 +1600,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1377,7 +1623,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1400,7 +1646,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1423,7 +1669,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1446,7 +1692,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1469,7 +1715,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1492,7 +1738,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1515,7 +1761,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1538,7 +1784,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1561,7 +1807,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1584,7 +1830,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1607,7 +1853,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1630,7 +1876,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1653,7 +1899,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1676,7 +1922,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1699,7 +1945,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1722,7 +1968,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1745,7 +1991,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1768,7 +2014,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1791,7 +2037,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1814,7 +2060,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1837,7 +2083,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1860,7 +2106,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1883,7 +2129,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1906,7 +2152,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1929,7 +2175,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1952,7 +2198,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1975,7 +2221,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1998,7 +2244,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2021,7 +2267,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2044,7 +2290,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2067,7 +2313,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -2090,7 +2336,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2113,7 +2359,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2136,7 +2382,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2159,7 +2405,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2182,7 +2428,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2205,7 +2451,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2228,7 +2474,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2251,7 +2497,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2274,7 +2520,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2297,7 +2543,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2320,7 +2566,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -2343,7 +2589,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -2366,7 +2612,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2389,7 +2635,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2412,7 +2658,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -2435,7 +2681,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -2458,7 +2704,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2481,7 +2727,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -2504,7 +2750,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -2527,7 +2773,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -2550,7 +2796,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2573,7 +2819,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -2596,7 +2842,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -2619,7 +2865,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -2642,7 +2888,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -2665,7 +2911,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -2688,7 +2934,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -2711,7 +2957,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -2734,7 +2980,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -2757,7 +3003,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -2780,7 +3026,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -2803,7 +3049,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -2826,7 +3072,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -2849,7 +3095,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -2872,7 +3118,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -2895,7 +3141,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -2918,7 +3164,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -2941,7 +3187,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -2964,7 +3210,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -2987,7 +3233,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -3010,7 +3256,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -3033,7 +3279,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -3056,7 +3302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -3079,7 +3325,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -3102,7 +3348,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -3125,7 +3371,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3148,7 +3394,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -3171,7 +3417,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -3194,7 +3440,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -3217,7 +3463,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -3240,7 +3486,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -3263,7 +3509,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -3286,7 +3532,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -3309,7 +3555,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -3332,7 +3578,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -3355,7 +3601,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -3378,7 +3624,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -3401,7 +3647,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -3424,7 +3670,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -3447,7 +3693,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -3470,7 +3716,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -3493,7 +3739,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -3516,7 +3762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -3539,7 +3785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -3562,7 +3808,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -3585,7 +3831,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -3608,7 +3854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -3631,7 +3877,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -3654,7 +3900,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -3677,7 +3923,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -3700,7 +3946,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -3723,7 +3969,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -3746,7 +3992,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -3769,7 +4015,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -3792,7 +4038,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -3815,7 +4061,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -3838,7 +4084,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -3861,7 +4107,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -3884,7 +4130,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -3907,7 +4153,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -3930,7 +4176,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -3953,7 +4199,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -3976,7 +4222,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -3999,7 +4245,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -4022,7 +4268,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -4045,7 +4291,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -4068,7 +4314,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -4091,7 +4337,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -4114,7 +4360,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -4137,7 +4383,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -4160,7 +4406,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -4183,7 +4429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -4206,7 +4452,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -4229,7 +4475,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -4252,7 +4498,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -4275,7 +4521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -4298,7 +4544,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -4321,7 +4567,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -4344,7 +4590,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -4367,7 +4613,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -4405,9 +4651,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4433,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4459,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4485,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4511,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4537,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4563,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4589,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4615,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4641,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4678,152 +4924,152 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>88</v>
       </c>
@@ -4842,12 +5088,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>49</v>
       </c>
@@ -4860,55 +5106,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
-        <v>96</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A12">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4916,44 +5185,617 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A57">
+    <sortCondition ref="A29"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A36">
+    <sortCondition ref="A8"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
-        <v>800</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A19">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>